--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redst\MobileApp\MomApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1B9F92-690C-47C6-87BD-3C30AC7AB3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A6BA3F-675A-4DF7-A29A-42CB4E13E9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>Golden_Wind</t>
   </si>
 </sst>
 </file>
@@ -475,16 +481,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA678083-25DE-43B7-8E8B-3CB625356D8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246A95FA-0848-4B0B-AFED-CA92ACC4E6CD}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -518,6 +527,26 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>13000006057</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>15.25</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
@@ -530,11 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53E1FFE-83F7-4AE4-881F-EAFC4DFEE633}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,13 +630,33 @@
         <v>44504.407790594174</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A68ABEF-E54E-4A0D-BC1E-CB845EFCF729}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC96724E-D010-4FD6-91E3-11EAF160C917}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -653,10 +702,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046BBFBE-75A7-4327-81AD-6438445D90ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B2BABB-9526-4539-AE90-5681BABA19A9}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redst\MobileApp\MomApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A6BA3F-675A-4DF7-A29A-42CB4E13E9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67045F94-8939-4F16-B60D-D63BDA05DD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="690" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>1s</t>
   </si>
   <si>
-    <t>Golden_Wind</t>
+    <t>res</t>
   </si>
 </sst>
 </file>
@@ -481,11 +481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246A95FA-0848-4B0B-AFED-CA92ACC4E6CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,13 +539,13 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>15.25</v>
+        <v>123</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redst\MobileApp\MomApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67045F94-8939-4F16-B60D-D63BDA05DD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EECD69-BBDA-4282-93B6-678892F7A02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="690" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>1s</t>
-  </si>
-  <si>
-    <t>res</t>
   </si>
 </sst>
 </file>
@@ -160,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -168,6 +162,7 @@
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,19 +476,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0999A640-736B-4A2E-9EE2-C217AA4CEC22}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A4:F4"/>
+      <selection activeCell="G6" sqref="A3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -527,26 +520,9 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>13000006057</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>123</v>
-      </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
+      <c r="B3" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
@@ -559,11 +535,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53E1FFE-83F7-4AE4-881F-EAFC4DFEE633}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE2A69D-CD5A-4926-9A93-857C98396B1C}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,33 +606,13 @@
         <v>44504.407790594174</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC96724E-D010-4FD6-91E3-11EAF160C917}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59E82D3-2C71-49E3-BDD4-1E525F4529C5}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -702,7 +658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B2BABB-9526-4539-AE90-5681BABA19A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6850878-6D49-43B5-99D1-297B5050C02F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redst\MobileApp\MomApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EECD69-BBDA-4282-93B6-678892F7A02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AAA54E-88F3-4CF8-B01B-905C92DB67FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="690" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Frogs</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>Velvet</t>
+  </si>
+  <si>
+    <t>Working</t>
   </si>
 </sst>
 </file>
@@ -476,16 +488,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0999A640-736B-4A2E-9EE2-C217AA4CEC22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A3:G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -522,7 +534,72 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
+      <c r="A3">
+        <v>786936732658</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>2.25</v>
+      </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>725272730706</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>28400589895</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>13000006057</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">

--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redst\MobileApp\MomApp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AAA54E-88F3-4CF8-B01B-905C92DB67FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="690" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="9360" windowWidth="18000" xWindow="2640" yWindow="690"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId1"/>
-    <sheet name="Log" sheetId="5" r:id="rId2"/>
-    <sheet name="Report Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Price Log" sheetId="2" r:id="rId4"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Items" sheetId="1" relationships:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log" sheetId="5" relationships:id="rId2"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report Data" sheetId="3" relationships:id="rId3"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Log" sheetId="2" relationships:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,12 +87,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,27 +103,33 @@
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
   </fills>
@@ -164,23 +164,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="6" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="3" fillId="4" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -488,21 +488,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="5.42578125"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -533,41 +533,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>786936732658</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
+      <c r="B3" s="7" t="str">
+        <v>The_World</v>
       </c>
       <c r="C3">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>725272730706</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="B4" t="str">
+        <v>Red</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>333</v>
       </c>
       <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>28400589895</v>
       </c>
@@ -584,7 +584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>13000006057</v>
       </c>
@@ -601,13 +601,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 

--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -101,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -132,8 +132,64 @@
         <bgColor auto="true"/>
       </patternFill>
     </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
   </fills>
-  <borders count="4">
+  <borders count="11">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -166,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
@@ -175,6 +231,27 @@
     <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="22" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="3" fillId="4" fontId="0" numFmtId="22" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="5" fontId="0" numFmtId="22" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="6" fontId="0" numFmtId="22" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="7" fontId="0" numFmtId="22" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="8" fontId="0" numFmtId="22" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="9" fontId="0" numFmtId="22" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="10" fontId="0" numFmtId="22" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="11" fontId="0" numFmtId="22" xfId="0">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -588,22 +665,34 @@
       <c r="A6">
         <v>13000006057</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
+      <c r="B6" t="str">
+        <v>Retarded</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>737452918903</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Memories</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="E7" t="s">
-        <v>9</v>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -735,19 +824,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6850878-6D49-43B5-99D1-297B5050C02F}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -764,10 +853,126 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>13000006057</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>44525.71917643866</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>13000006057</v>
+      </c>
+      <c r="B3" t="str">
+        <v>red</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44525.719464839116</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>13000006057</v>
+      </c>
+      <c r="B4" t="str">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>44525.719869876615</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>13000006057</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Same</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>44525.72240384563</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>13000006057</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Cost</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12">
+        <v>44525.723437086286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>13000006057</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Render</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>44526.41935156452</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>13000006057</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Retarded</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>44526.42054798802</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -695,6 +695,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8">
+        <v>674398202423</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Piano_Book</v>
+      </c>
+      <c r="C8">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -712,6 +712,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9">
+        <v>490810512013</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Index_Cards</v>
+      </c>
+      <c r="C9">
+        <v>10.54</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView windowHeight="9360" windowWidth="18000" xWindow="2640" yWindow="690"/>
+    <workbookView windowHeight="13140" windowWidth="24240" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Items" sheetId="1" relationships:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Revenue</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -72,16 +69,40 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Frogs</t>
-  </si>
-  <si>
-    <t>Who</t>
-  </si>
-  <si>
     <t>Velvet</t>
   </si>
   <si>
-    <t>Working</t>
+    <t>The_World</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Retarded</t>
+  </si>
+  <si>
+    <t>Memories</t>
+  </si>
+  <si>
+    <t>Piano_Book</t>
+  </si>
+  <si>
+    <t>Index_Cards</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>Render</t>
   </si>
 </sst>
 </file>
@@ -132,13 +153,48 @@
         <bgColor auto="true"/>
       </patternFill>
     </fill>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -231,27 +287,13 @@
     <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="22" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="3" fillId="4" fontId="0" numFmtId="22" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="5" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="6" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="7" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="8" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="9" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="10" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="11" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="5" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="6" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="7" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="8" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="9" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="10" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="11" fontId="0" numFmtId="22" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -566,15 +608,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="41.42578125"/>
     <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="5.42578125"/>
     <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="9.5703125"/>
   </cols>
@@ -609,13 +652,16 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
         <v>786936732658</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <v>The_World</v>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -631,8 +677,8 @@
       <c r="A4">
         <v>725272730706</v>
       </c>
-      <c r="B4" t="str">
-        <v>Red</v>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4">
         <v>33</v>
@@ -649,7 +695,7 @@
         <v>28400589895</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -665,8 +711,8 @@
       <c r="A6">
         <v>13000006057</v>
       </c>
-      <c r="B6" t="str">
-        <v>Retarded</v>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -682,8 +728,8 @@
       <c r="A7">
         <v>737452918903</v>
       </c>
-      <c r="B7" t="str">
-        <v>Memories</v>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -695,12 +741,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>674398202423</v>
       </c>
-      <c r="B8" t="str">
-        <v>Piano_Book</v>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8">
         <v>43</v>
@@ -712,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>490810512013</v>
       </c>
@@ -720,10 +766,10 @@
         <v>Index_Cards</v>
       </c>
       <c r="C9">
-        <v>10.54</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -735,7 +781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE2A69D-CD5A-4926-9A93-857C98396B1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C7EE5A-33BE-430A-9E01-648D4595B43F}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -766,7 +812,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -812,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59E82D3-2C71-49E3-BDD4-1E525F4529C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDCF3F2-4DED-42BC-9358-E774FDD51861}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -834,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -849,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -858,19 +904,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82F8B34-DFCF-4AD9-8CB6-6CDF95B44E42}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="10.7109375"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -887,12 +933,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13000006057</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -901,15 +947,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="8">
-        <v>44525.71917643866</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>44525.719176438659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13000006057</v>
       </c>
-      <c r="B3" t="str">
-        <v>red</v>
+      <c r="B3" t="s">
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -921,12 +967,12 @@
         <v>44525.719464839116</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13000006057</v>
       </c>
-      <c r="B4" t="str">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -938,12 +984,12 @@
         <v>44525.719869876615</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13000006057</v>
       </c>
-      <c r="B5" t="str">
-        <v>Same</v>
+      <c r="B5" t="s">
+        <v>22</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -952,15 +998,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="11">
-        <v>44525.72240384563</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>44525.722403845633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13000006057</v>
       </c>
-      <c r="B6" t="str">
-        <v>Cost</v>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -972,12 +1018,12 @@
         <v>44525.723437086286</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13000006057</v>
       </c>
-      <c r="B7" t="str">
-        <v>Render</v>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -986,15 +1032,15 @@
         <v>2</v>
       </c>
       <c r="E7" s="13">
-        <v>44526.41935156452</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>44526.419351564517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13000006057</v>
       </c>
-      <c r="B8" t="str">
-        <v>Retarded</v>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1003,10 +1049,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="14">
-        <v>44526.42054798802</v>
+        <v>44526.420547988018</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projects Golang\Mobile Apps\MomApp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC3CC03-A267-4133-A5D5-A81EA5D0BAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="13140" windowWidth="24240" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Items" sheetId="1" relationships:id="rId1"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log" sheetId="5" relationships:id="rId2"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report Data" sheetId="3" relationships:id="rId3"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Log" sheetId="2" relationships:id="rId4"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
+    <sheet name="Log" sheetId="5" r:id="rId2"/>
+    <sheet name="Report Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Price Log" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -66,9 +72,6 @@
     <t>abcdefghijk2</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Velvet</t>
   </si>
   <si>
@@ -87,9 +90,6 @@
     <t>Piano_Book</t>
   </si>
   <si>
-    <t>Index_Cards</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -103,17 +103,23 @@
   </si>
   <si>
     <t>Render</t>
+  </si>
+  <si>
+    <t>verrr</t>
+  </si>
+  <si>
+    <t>2021/12/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,75 +130,69 @@
   </fonts>
   <fills count="12">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -276,30 +276,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="6" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="3" fillId="4" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="5" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="6" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="7" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="8" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="9" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="10" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="11" fontId="0" numFmtId="22" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -607,22 +607,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CBA8F1-0B22-439C-B988-4A0455802ADE}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="41.42578125"/>
-    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="5.42578125"/>
-    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="9.5703125"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -656,12 +656,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>786936732658</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -673,12 +673,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>725272730706</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>33</v>
@@ -690,12 +690,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>28400589895</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -707,12 +707,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13000006057</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -724,12 +724,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>737452918903</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -741,12 +741,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>674398202423</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>43</v>
@@ -757,31 +757,34 @@
       <c r="E8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>490810512013</v>
       </c>
-      <c r="B9" t="str">
-        <v>Index_Cards</v>
+      <c r="B9" t="s">
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C7EE5A-33BE-430A-9E01-648D4595B43F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AD5C85-BD32-4CB0-AB70-37D6BA0AFAB3}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -858,21 +861,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDCF3F2-4DED-42BC-9358-E774FDD51861}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B932D839-3A41-45FA-BC18-0CD48B8EC9FF}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -894,8 +899,71 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>674398202423</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>43</v>
+      </c>
+      <c r="F2">
+        <v>-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>674398202423</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>76</v>
+      </c>
+      <c r="E3">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>674398202423</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82F8B34-DFCF-4AD9-8CB6-6CDF95B44E42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44514EE7-A14A-470B-AE57-A58BDC3DC8FA}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -938,7 +1006,7 @@
         <v>13000006057</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -955,7 +1023,7 @@
         <v>13000006057</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -972,7 +1040,7 @@
         <v>13000006057</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -989,7 +1057,7 @@
         <v>13000006057</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1023,7 +1091,7 @@
         <v>13000006057</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1040,7 +1108,7 @@
         <v>13000006057</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>3</v>

--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projects Golang\Mobile Apps\MomApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC3CC03-A267-4133-A5D5-A81EA5D0BAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D495839-4242-4FAC-AA03-E0573B0F3593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>2021/12/2</t>
   </si>
 </sst>
 </file>
@@ -607,7 +610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CBA8F1-0B22-439C-B988-4A0455802ADE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A569FB-47C0-40BA-885E-E5D5551FA4E1}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -777,6 +780,9 @@
       <c r="E9">
         <v>3</v>
       </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -784,7 +790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AD5C85-BD32-4CB0-AB70-37D6BA0AFAB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31103AB6-2355-42B6-B03D-5AECCDF03CD5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -861,11 +867,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B932D839-3A41-45FA-BC18-0CD48B8EC9FF}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92092C99-242F-4D62-BE06-AF52FEDCEEFB}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,13 +972,36 @@
         <v>23</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>490810512013</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44514EE7-A14A-470B-AE57-A58BDC3DC8FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91117F5-37B1-4276-9B2D-C0B434E046D4}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projects Golang\Mobile Apps\MomApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D495839-4242-4FAC-AA03-E0573B0F3593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B819A2ED-70B8-4D19-988B-37448A2800A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>2021/12/2</t>
+  </si>
+  <si>
+    <t>2021/12/3</t>
   </si>
 </sst>
 </file>
@@ -610,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A569FB-47C0-40BA-885E-E5D5551FA4E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE316FE-BC03-464A-A9A4-E7C00D43F564}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -761,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>-2</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,7 +793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31103AB6-2355-42B6-B03D-5AECCDF03CD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A83D0E-AAB3-4391-9DE2-91064A040BB8}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -867,11 +870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92092C99-242F-4D62-BE06-AF52FEDCEEFB}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA4BED1-4C8B-4EA0-8BFE-80F8B1FFF6F0}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,13 +998,59 @@
         <v>24</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>674398202423</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>-4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>674398202423</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91117F5-37B1-4276-9B2D-C0B434E046D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2F99CA-0FBF-4744-9AB6-7A7C1D0A6437}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projects Golang\Mobile Apps\MomApp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02857CC-8905-430E-8D3B-20A21465AB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" windowHeight="13140" windowWidth="24240" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId1"/>
-    <sheet name="Log" sheetId="5" r:id="rId2"/>
-    <sheet name="Report Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Price Log" sheetId="2" r:id="rId4"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Items" sheetId="1" relationships:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log" sheetId="5" relationships:id="rId2"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report Data" sheetId="3" relationships:id="rId3"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Log" sheetId="2" relationships:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -123,12 +117,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,69 +133,75 @@
   </fonts>
   <fills count="12">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
   </fills>
@@ -285,30 +285,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="6" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="3" fillId="4" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="5" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="6" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="7" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="8" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="9" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="10" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="11" fontId="0" numFmtId="22" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -616,22 +616,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F4DB6A-F50D-4239-AA5A-E5D82F3DD354}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="41.42578125"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="5.42578125"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>786936732658</v>
       </c>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>725272730706</v>
       </c>
@@ -699,7 +699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>28400589895</v>
       </c>
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>13000006057</v>
       </c>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>737452918903</v>
       </c>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>674398202423</v>
       </c>
@@ -767,10 +767,10 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>490810512013</v>
       </c>
@@ -790,8 +790,25 @@
         <v>-2</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10">
+        <v>29000073692</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Nut_Mix</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -873,23 +890,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C557E9-058B-42B3-9D3D-0C80A2483857}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11.42578125"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="9.7109375"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="9.5703125"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="9.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>674398202423</v>
       </c>
@@ -935,7 +952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>674398202423</v>
       </c>
@@ -955,7 +972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>674398202423</v>
       </c>
@@ -978,7 +995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>490810512013</v>
       </c>
@@ -1001,7 +1018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>674398202423</v>
       </c>
@@ -1024,7 +1041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>674398202423</v>
       </c>
@@ -1047,7 +1064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>674398202423</v>
       </c>
@@ -1070,7 +1087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>490810512013</v>
       </c>
@@ -1093,8 +1110,31 @@
         <v>26</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10">
+        <v>674398202423</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Piano_Book</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>-8</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2021/12/5</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 

--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -767,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>-8</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1133,6 +1133,29 @@
         <v>2021/12/5</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11">
+        <v>674398202423</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Piano_Book</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>-11</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2021/12/6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -703,17 +703,17 @@
       <c r="A5">
         <v>28400589895</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
+      <c r="B5" t="str">
+        <v>Trucks_having_sex</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -754,20 +754,20 @@
       <c r="A8">
         <v>674398202423</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
+      <c r="B8" t="str">
+        <v>Piano_Book</v>
       </c>
       <c r="C8">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>-11</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -787,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10">
@@ -795,16 +795,16 @@
         <v>29000073692</v>
       </c>
       <c r="B10" t="str">
-        <v>Nut_Mix</v>
+        <v>rrreee</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1156,6 +1156,75 @@
         <v>2021/12/6</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12">
+        <v>674398202423</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Piano_Book</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>86</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>-13</v>
+      </c>
+      <c r="G12" t="str">
+        <v>2021/12/30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>674398202423</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Piano_Book</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>-14</v>
+      </c>
+      <c r="G13" t="str">
+        <v>2021/12/30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>490810512013</v>
+      </c>
+      <c r="B14" t="str">
+        <v>verrr</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>-3</v>
+      </c>
+      <c r="G14" t="str">
+        <v>2021/12/30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -807,6 +807,91 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11">
+        <v>888670109472</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Mixed_Nut_can_2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>750515018013</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Cracker_Cart</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>16000179356</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Samus</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>2333</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>44000010461</v>
+      </c>
+      <c r="B14" t="str">
+        <v>rejlk</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>96619284108</v>
+      </c>
+      <c r="B15" t="str">
+        <v>333</v>
+      </c>
+      <c r="C15">
+        <v>222</v>
+      </c>
+      <c r="D15">
+        <v>211</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestAppData.xlsx
+++ b/TestAppData.xlsx
@@ -1,87 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="13140" windowWidth="24240" xWindow="-120" yWindow="-120"/>
+    <workbookView windowWidth="24000" windowHeight="9795" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Items" sheetId="1" relationships:id="rId1"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log" sheetId="5" relationships:id="rId2"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report Data" sheetId="3" relationships:id="rId3"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Log" sheetId="2" relationships:id="rId4"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
+    <sheet name="Report Data" sheetId="3" r:id="rId2"/>
+    <sheet name="Price Log" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Price</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Cost</t>
   </si>
   <si>
     <t>Inventory</t>
   </si>
   <si>
-    <t>Cost</t>
+    <t>null</t>
+  </si>
+  <si>
+    <t>The_World</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Trucks_having_sex</t>
+  </si>
+  <si>
+    <t>Retarded</t>
+  </si>
+  <si>
+    <t>Memories</t>
+  </si>
+  <si>
+    <t>Piano_Book</t>
+  </si>
+  <si>
+    <t>Index_Cards</t>
+  </si>
+  <si>
+    <t>rrreee</t>
+  </si>
+  <si>
+    <t>Mixed_Nut_can_2</t>
+  </si>
+  <si>
+    <t>Cracker_Cart</t>
+  </si>
+  <si>
+    <t>Can_of_Soup</t>
+  </si>
+  <si>
+    <t>rejlk</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Revenue</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>abcdefghijk2</t>
-  </si>
-  <si>
-    <t>Velvet</t>
-  </si>
-  <si>
-    <t>The_World</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Retarded</t>
-  </si>
-  <si>
-    <t>Memories</t>
-  </si>
-  <si>
-    <t>Piano_Book</t>
+    <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>verrr</t>
+  </si>
+  <si>
+    <t>2021/12/2</t>
+  </si>
+  <si>
+    <t>2021/12/3</t>
+  </si>
+  <si>
+    <t>2021/12/4</t>
+  </si>
+  <si>
+    <t>2021/12/5</t>
+  </si>
+  <si>
+    <t>2021/12/6</t>
+  </si>
+  <si>
+    <t>2021/12/30</t>
   </si>
   <si>
     <t>1</t>
@@ -99,113 +123,183 @@
     <t>Render</t>
   </si>
   <si>
-    <t>verrr</t>
-  </si>
-  <si>
-    <t>2021/12/1</t>
-  </si>
-  <si>
-    <t>2021/12/2</t>
-  </si>
-  <si>
-    <t>2021/12/3</t>
-  </si>
-  <si>
-    <t>2021/12/4</t>
+    <t>2021/12/31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -214,107 +308,314 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="6" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="3" fillId="4" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="5" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="6" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="7" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="8" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="9" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="10" fontId="0" numFmtId="22" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="11" fontId="0" numFmtId="22" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -363,7 +664,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -396,26 +697,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -448,23 +732,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -606,71 +873,66 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="41.42578125"/>
-    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="5.42578125"/>
-    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="9.5703125"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="41.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="5.42857142857143" customWidth="1"/>
+    <col min="5" max="5" width="9.57142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>786936732658</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -682,12 +944,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>725272730706</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>33</v>
@@ -699,12 +961,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>28400589895</v>
       </c>
-      <c r="B5" t="str">
-        <v>Trucks_having_sex</v>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -716,12 +978,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>13000006057</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -733,12 +995,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>737452918903</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -754,17 +1016,17 @@
       <c r="A8">
         <v>674398202423</v>
       </c>
-      <c r="B8" t="str">
-        <v>Piano_Book</v>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>444</v>
       </c>
       <c r="F8">
         <v>-14</v>
@@ -775,10 +1037,10 @@
         <v>490810512013</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -790,12 +1052,12 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>29000073692</v>
       </c>
-      <c r="B10" t="str">
-        <v>rrreee</v>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -807,12 +1069,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>888670109472</v>
       </c>
-      <c r="B11" t="str">
-        <v>Mixed_Nut_can_2</v>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -824,12 +1086,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>750515018013</v>
       </c>
-      <c r="B12" t="str">
-        <v>Cracker_Cart</v>
+      <c r="B12" t="s">
+        <v>15</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -841,29 +1103,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>16000179356</v>
       </c>
-      <c r="B13" t="str">
-        <v>Samus</v>
+      <c r="B13" t="s">
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>211212</v>
       </c>
       <c r="D13">
-        <v>2333</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>44000010461</v>
       </c>
-      <c r="B14" t="str">
-        <v>rejlk</v>
+      <c r="B14" t="s">
+        <v>17</v>
       </c>
       <c r="C14">
         <v>19</v>
@@ -875,12 +1137,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>96619284108</v>
       </c>
-      <c r="B15" t="str">
-        <v>333</v>
+      <c r="B15" t="s">
+        <v>18</v>
       </c>
       <c r="C15">
         <v>222</v>
@@ -893,102 +1155,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C833EDD-534B-42B2-BDD2-559E8412576C}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44503.804363425923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>44503.898853070074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6">
-        <v>44504.407790594174</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
-    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11.42578125"/>
-    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="9.7109375"/>
-    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="9.5703125"/>
-    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="9.7109375"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="11.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="9.71428571428571" customWidth="1"/>
+    <col min="6" max="6" width="9.57142857142857" customWidth="1"/>
+    <col min="7" max="7" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -996,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1019,7 +1206,7 @@
         <v>674398202423</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1034,7 +1221,7 @@
         <v>-2</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1042,7 +1229,7 @@
         <v>674398202423</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1054,7 +1241,7 @@
         <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1062,7 +1249,7 @@
         <v>674398202423</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1077,7 +1264,7 @@
         <v>-2</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1085,7 +1272,7 @@
         <v>490810512013</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1108,7 +1295,7 @@
         <v>674398202423</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1131,7 +1318,7 @@
         <v>674398202423</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1154,7 +1341,7 @@
         <v>674398202423</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1177,7 +1364,7 @@
         <v>490810512013</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1195,12 +1382,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>674398202423</v>
       </c>
-      <c r="B10" t="str">
-        <v>Piano_Book</v>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1214,16 +1401,16 @@
       <c r="F10">
         <v>-8</v>
       </c>
-      <c r="G10" t="str">
-        <v>2021/12/5</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>674398202423</v>
       </c>
-      <c r="B11" t="str">
-        <v>Piano_Book</v>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1237,16 +1424,16 @@
       <c r="F11">
         <v>-11</v>
       </c>
-      <c r="G11" t="str">
-        <v>2021/12/6</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>674398202423</v>
       </c>
-      <c r="B12" t="str">
-        <v>Piano_Book</v>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1260,16 +1447,16 @@
       <c r="F12">
         <v>-13</v>
       </c>
-      <c r="G12" t="str">
-        <v>2021/12/30</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>674398202423</v>
       </c>
-      <c r="B13" t="str">
-        <v>Piano_Book</v>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1283,16 +1470,16 @@
       <c r="F13">
         <v>-14</v>
       </c>
-      <c r="G13" t="str">
-        <v>2021/12/30</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>490810512013</v>
       </c>
-      <c r="B14" t="str">
-        <v>verrr</v>
+      <c r="B14" t="s">
+        <v>23</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1306,51 +1493,54 @@
       <c r="F14">
         <v>-3</v>
       </c>
-      <c r="G14" t="str">
-        <v>2021/12/30</v>
+      <c r="G14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8E916-4F10-47C2-8648-0145CB92AFF8}">
-  <dimension ref="A1:E8"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="12.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>13000006057</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1358,16 +1548,16 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="8">
-        <v>44525.719176438659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>44525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>13000006057</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1375,16 +1565,16 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
-        <v>44525.719464839116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>44525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>13000006057</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1392,16 +1582,16 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="10">
-        <v>44525.719869876615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>44525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>13000006057</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1409,16 +1599,16 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="11">
-        <v>44525.722403845633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>44525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>13000006057</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -1426,16 +1616,16 @@
       <c r="D6">
         <v>12</v>
       </c>
-      <c r="E6" s="12">
-        <v>44525.723437086286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <v>44525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>13000006057</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1443,16 +1633,16 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="13">
-        <v>44526.419351564517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <v>44526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>13000006057</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1460,11 +1650,63 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="14">
-        <v>44526.420547988018</v>
+      <c r="E8" s="3">
+        <v>44526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>674398202423</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>490810512013</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>16000179356</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>211212</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>